--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -47,12 +47,12 @@
     <sheet name="06.12.2021" sheetId="37" state="visible" r:id="rId38"/>
     <sheet name="08.12.2021" sheetId="38" state="visible" r:id="rId39"/>
     <sheet name="10.12.2021" sheetId="39" state="visible" r:id="rId40"/>
-    <sheet name="05.01.2022" sheetId="40" state="visible" r:id="rId41"/>
-    <sheet name="07.01.2022" sheetId="41" state="visible" r:id="rId42"/>
-    <sheet name="10.01.2022" sheetId="42" state="visible" r:id="rId43"/>
-    <sheet name="12.01.2022" sheetId="43" state="visible" r:id="rId44"/>
-    <sheet name="14.01.2022" sheetId="44" state="visible" r:id="rId45"/>
-    <sheet name="17.01.2022" sheetId="45" state="visible" r:id="rId46"/>
+    <sheet name="07.01.2022" sheetId="40" state="visible" r:id="rId41"/>
+    <sheet name="10.01.2022" sheetId="41" state="visible" r:id="rId42"/>
+    <sheet name="12.01.2022" sheetId="42" state="visible" r:id="rId43"/>
+    <sheet name="14.01.2022" sheetId="43" state="visible" r:id="rId44"/>
+    <sheet name="17.01.2022" sheetId="44" state="visible" r:id="rId45"/>
+    <sheet name="15.01.2022" sheetId="45" state="visible" r:id="rId46"/>
     <sheet name="Muster_low" sheetId="46" state="visible" r:id="rId47"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="16">
   <si>
     <t xml:space="preserve">Seite</t>
   </si>
@@ -602,7 +602,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
@@ -1234,7 +1234,7 @@
       <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -1975,7 +1975,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -2548,7 +2548,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -2953,7 +2953,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
@@ -3357,7 +3357,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10.57"/>
   </cols>
@@ -4026,7 +4026,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -4333,7 +4333,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4632,7 +4632,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4936,7 +4936,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5235,7 +5235,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5534,7 +5534,7 @@
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.85"/>
@@ -6449,7 +6449,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6748,7 +6748,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7048,7 +7048,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7347,7 +7347,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7646,7 +7646,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -7947,7 +7947,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8392,7 +8392,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8837,7 +8837,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -9282,7 +9282,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9729,7 +9729,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -10172,7 +10172,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.57"/>
@@ -10663,7 +10663,7 @@
       <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
@@ -11109,7 +11109,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11554,7 +11554,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11999,7 +11999,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12445,7 +12445,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12890,7 +12890,7 @@
       <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -13335,7 +13335,7 @@
       <selection pane="topRight" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13636,7 +13636,7 @@
       <selection pane="topRight" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13946,7 +13946,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14197,7 +14197,7 @@
       <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14448,7 +14448,7 @@
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -15359,10 +15359,13 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.41"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -15372,16 +15375,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>13</v>
@@ -15397,13 +15400,49 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15413,6 +15452,24 @@
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
@@ -15421,6 +15478,24 @@
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
@@ -15429,21 +15504,75 @@
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15453,6 +15582,24 @@
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
@@ -15461,37 +15608,127 @@
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15501,6 +15738,24 @@
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
@@ -15508,6 +15763,24 @@
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15529,10 +15802,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -15542,13 +15815,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
@@ -15557,12 +15830,12 @@
         <v>13</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -15570,7 +15843,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
@@ -15586,7 +15859,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
@@ -15634,7 +15907,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -15642,7 +15915,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
@@ -15650,7 +15923,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -15658,7 +15931,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -15674,7 +15947,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
@@ -15702,7 +15975,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -15715,19 +15988,19 @@
         <v>11</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15756,7 +16029,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
@@ -15804,7 +16077,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -15812,7 +16085,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
@@ -15828,7 +16101,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -15869,10 +16142,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -15882,27 +16155,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -15910,7 +16183,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
@@ -15942,7 +16215,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -15950,7 +16223,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
@@ -15966,7 +16239,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
@@ -15974,7 +16247,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -15982,7 +16255,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
@@ -15990,7 +16263,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -15998,7 +16271,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -16039,10 +16312,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16052,27 +16325,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -16096,7 +16369,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
@@ -16112,7 +16385,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -16120,7 +16393,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
@@ -16128,7 +16401,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -16136,7 +16409,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
@@ -16144,7 +16417,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -16184,7 +16457,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
@@ -16209,10 +16482,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16222,27 +16495,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" s="18" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -16250,7 +16523,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
@@ -16266,7 +16539,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
@@ -16282,7 +16555,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -16290,7 +16563,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
@@ -16298,7 +16571,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -16314,7 +16587,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -16330,7 +16603,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -16382,7 +16655,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16522,7 +16795,7 @@
       <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -17095,7 +17368,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -17668,7 +17941,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -18405,7 +18678,7 @@
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -19148,7 +19421,7 @@
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="39"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -602,7 +602,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
@@ -1234,7 +1234,7 @@
       <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -1975,7 +1975,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -2548,7 +2548,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -2953,7 +2953,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
@@ -3357,7 +3357,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10.57"/>
   </cols>
@@ -4026,7 +4026,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -4333,7 +4333,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4632,7 +4632,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4936,7 +4936,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5235,7 +5235,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5534,7 +5534,7 @@
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.85"/>
@@ -6449,7 +6449,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6748,7 +6748,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7048,7 +7048,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7347,7 +7347,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7646,7 +7646,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -7947,7 +7947,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8392,7 +8392,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8837,7 +8837,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -9282,7 +9282,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9729,7 +9729,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -10172,7 +10172,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.57"/>
@@ -10663,7 +10663,7 @@
       <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
@@ -11109,7 +11109,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11554,7 +11554,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11999,7 +11999,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12445,7 +12445,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12890,7 +12890,7 @@
       <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -13335,7 +13335,7 @@
       <selection pane="topRight" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13636,7 +13636,7 @@
       <selection pane="topRight" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13946,7 +13946,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14197,7 +14197,7 @@
       <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14448,7 +14448,7 @@
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -15358,11 +15358,11 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.41"/>
   </cols>
@@ -15802,10 +15802,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -15840,6 +15840,24 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
@@ -15848,6 +15866,24 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
@@ -15856,6 +15892,24 @@
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
@@ -15864,6 +15918,24 @@
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
@@ -15872,6 +15944,24 @@
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
@@ -15880,6 +15970,24 @@
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
@@ -15888,6 +15996,24 @@
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
@@ -15896,6 +16022,24 @@
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
@@ -15904,6 +16048,24 @@
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
@@ -15912,6 +16074,24 @@
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
@@ -15920,6 +16100,24 @@
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
@@ -15928,6 +16126,24 @@
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
@@ -15936,6 +16152,24 @@
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
@@ -15944,6 +16178,24 @@
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
@@ -15951,6 +16203,24 @@
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15971,11 +16241,11 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16145,7 +16415,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16315,7 +16585,7 @@
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16485,7 +16755,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16655,7 +16925,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16795,7 +17065,7 @@
       <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -17368,7 +17638,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -17941,7 +18211,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -18678,7 +18948,7 @@
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -19421,7 +19691,7 @@
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -602,7 +602,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
@@ -1234,7 +1234,7 @@
       <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -1975,7 +1975,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -2548,7 +2548,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -2953,7 +2953,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
@@ -3357,7 +3357,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10.57"/>
   </cols>
@@ -4026,7 +4026,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -4333,7 +4333,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4632,7 +4632,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4936,7 +4936,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5235,7 +5235,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5534,7 +5534,7 @@
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.85"/>
@@ -6449,7 +6449,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6748,7 +6748,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7048,7 +7048,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7347,7 +7347,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7646,7 +7646,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -7947,7 +7947,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8392,7 +8392,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8837,7 +8837,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -9282,7 +9282,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9729,7 +9729,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -10172,7 +10172,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.57"/>
@@ -10663,7 +10663,7 @@
       <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
@@ -11109,7 +11109,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11554,7 +11554,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11999,7 +11999,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12445,7 +12445,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12890,7 +12890,7 @@
       <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -13335,7 +13335,7 @@
       <selection pane="topRight" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13636,7 +13636,7 @@
       <selection pane="topRight" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13946,7 +13946,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14197,7 +14197,7 @@
       <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14448,7 +14448,7 @@
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -15362,7 +15362,7 @@
       <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.41"/>
   </cols>
@@ -15805,7 +15805,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16242,10 +16242,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16280,6 +16280,24 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
@@ -16288,6 +16306,24 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
@@ -16296,6 +16332,24 @@
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
@@ -16304,6 +16358,24 @@
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
@@ -16312,6 +16384,24 @@
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
@@ -16320,6 +16410,24 @@
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
@@ -16328,6 +16436,24 @@
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
@@ -16336,6 +16462,24 @@
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
@@ -16344,6 +16488,24 @@
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
@@ -16352,6 +16514,24 @@
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
@@ -16360,6 +16540,24 @@
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
@@ -16368,6 +16566,24 @@
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
@@ -16376,6 +16592,24 @@
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
@@ -16384,6 +16618,24 @@
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
@@ -16391,6 +16643,24 @@
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16415,7 +16685,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16585,7 +16855,7 @@
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16755,7 +17025,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16925,7 +17195,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17065,7 +17335,7 @@
       <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -17638,7 +17908,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -18211,7 +18481,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -18948,7 +19218,7 @@
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -19691,7 +19961,7 @@
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="41"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,10 +50,11 @@
     <sheet name="07.01.2022" sheetId="40" state="visible" r:id="rId41"/>
     <sheet name="10.01.2022" sheetId="41" state="visible" r:id="rId42"/>
     <sheet name="12.01.2022" sheetId="42" state="visible" r:id="rId43"/>
-    <sheet name="14.01.2022" sheetId="43" state="visible" r:id="rId44"/>
-    <sheet name="17.01.2022" sheetId="44" state="visible" r:id="rId45"/>
-    <sheet name="15.01.2022" sheetId="45" state="visible" r:id="rId46"/>
-    <sheet name="Muster_low" sheetId="46" state="visible" r:id="rId47"/>
+    <sheet name="17.01.2022" sheetId="43" state="visible" r:id="rId44"/>
+    <sheet name="19.01.2022" sheetId="44" state="visible" r:id="rId45"/>
+    <sheet name="21.01.2022" sheetId="45" state="visible" r:id="rId46"/>
+    <sheet name="24.01.2022" sheetId="46" state="visible" r:id="rId47"/>
+    <sheet name="Muster_low" sheetId="47" state="visible" r:id="rId48"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="16">
   <si>
     <t xml:space="preserve">Seite</t>
   </si>
@@ -602,7 +603,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
@@ -1234,7 +1235,7 @@
       <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -1975,7 +1976,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -2548,7 +2549,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -2953,7 +2954,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
@@ -3357,7 +3358,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10.57"/>
   </cols>
@@ -4026,7 +4027,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -4333,7 +4334,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4632,7 +4633,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4936,7 +4937,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5235,7 +5236,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5534,7 +5535,7 @@
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.85"/>
@@ -6449,7 +6450,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6748,7 +6749,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7048,7 +7049,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7347,7 +7348,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7646,7 +7647,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -7947,7 +7948,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8392,7 +8393,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8837,7 +8838,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -9282,7 +9283,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9729,7 +9730,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -10172,7 +10173,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.57"/>
@@ -10663,7 +10664,7 @@
       <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
@@ -11109,7 +11110,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11554,7 +11555,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11999,7 +12000,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12445,7 +12446,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12890,7 +12891,7 @@
       <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -13335,7 +13336,7 @@
       <selection pane="topRight" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13636,7 +13637,7 @@
       <selection pane="topRight" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13946,7 +13947,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14197,7 +14198,7 @@
       <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14448,7 +14449,7 @@
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -15362,7 +15363,7 @@
       <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.41"/>
   </cols>
@@ -15805,7 +15806,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16241,11 +16242,11 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16682,10 +16683,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16720,6 +16721,24 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
@@ -16728,6 +16747,24 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
@@ -16736,6 +16773,24 @@
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
@@ -16744,6 +16799,24 @@
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
@@ -16752,6 +16825,24 @@
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
@@ -16760,6 +16851,24 @@
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
@@ -16768,6 +16877,24 @@
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
@@ -16776,6 +16903,24 @@
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
@@ -16784,6 +16929,24 @@
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
@@ -16792,6 +16955,24 @@
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
@@ -16800,6 +16981,24 @@
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
@@ -16808,6 +17007,24 @@
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
@@ -16816,6 +17033,24 @@
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
@@ -16824,6 +17059,24 @@
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
@@ -16831,6 +17084,24 @@
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -16852,10 +17123,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16890,6 +17161,24 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
@@ -16898,6 +17187,24 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
@@ -16906,6 +17213,24 @@
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
@@ -16914,6 +17239,24 @@
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
@@ -16922,6 +17265,24 @@
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
@@ -16930,6 +17291,24 @@
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
@@ -16938,6 +17317,24 @@
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
@@ -16946,6 +17343,24 @@
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
@@ -16954,6 +17369,24 @@
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
@@ -16962,6 +17395,24 @@
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
@@ -16970,6 +17421,24 @@
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
@@ -16978,6 +17447,24 @@
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
@@ -16986,6 +17473,24 @@
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
@@ -16994,6 +17499,24 @@
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
@@ -17001,6 +17524,24 @@
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17022,10 +17563,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17060,6 +17601,24 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
@@ -17068,6 +17627,24 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
@@ -17076,6 +17653,24 @@
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
@@ -17084,6 +17679,24 @@
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
@@ -17092,6 +17705,24 @@
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
@@ -17100,6 +17731,24 @@
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
@@ -17108,6 +17757,24 @@
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
@@ -17116,6 +17783,24 @@
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
@@ -17124,6 +17809,24 @@
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
@@ -17132,6 +17835,24 @@
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
@@ -17140,6 +17861,24 @@
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
@@ -17148,6 +17887,24 @@
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
@@ -17156,6 +17913,24 @@
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
@@ -17164,6 +17939,24 @@
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
@@ -17171,6 +17964,24 @@
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17191,11 +18002,451 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17335,7 +18586,7 @@
       <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -17908,7 +19159,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -18481,7 +19732,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -19218,7 +20469,7 @@
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -19961,7 +21212,7 @@
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="45"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -54,7 +54,8 @@
     <sheet name="19.01.2022" sheetId="44" state="visible" r:id="rId45"/>
     <sheet name="21.01.2022" sheetId="45" state="visible" r:id="rId46"/>
     <sheet name="24.01.2022" sheetId="46" state="visible" r:id="rId47"/>
-    <sheet name="Muster_low" sheetId="47" state="visible" r:id="rId48"/>
+    <sheet name="26.01.2022" sheetId="47" state="visible" r:id="rId48"/>
+    <sheet name="Muster_low" sheetId="48" state="visible" r:id="rId49"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="16">
   <si>
     <t xml:space="preserve">Seite</t>
   </si>
@@ -18002,11 +18003,11 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18442,8 +18443,448 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c43f9665d5792837/Dokumente (nicht löschen!)/GitHub/multimodal_fish/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4B129791646AB351840E92D5C81A628A4EA4A481" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2528C08-1F91-4F9D-8AED-B09D3386A0E2}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_4B129791646AB351840E92D5C81A628A4EA4A481" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20F971DF-9601-49B9-9FD4-211C8CCA0A00}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,6 @@
     <sheet name="21.01.2022" sheetId="45" r:id="rId45"/>
     <sheet name="24.01.2022" sheetId="46" r:id="rId46"/>
     <sheet name="26.01.2022" sheetId="47" r:id="rId47"/>
-    <sheet name="Muster_low" sheetId="48" r:id="rId48"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -153,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="14">
   <si>
     <t>Seite</t>
   </si>
@@ -195,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">01. + </t>
-  </si>
-  <si>
-    <t>2020albi0</t>
   </si>
 </sst>
 </file>
@@ -873,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -3146,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12752,7 +12748,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13480,7 +13476,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="C17:E17"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14014,7 +14010,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17737,7 +17733,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18173,7 +18169,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18592,140 +18588,6 @@
       </c>
       <c r="H16">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="47"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -56,6 +56,7 @@
     <sheet name="24.01.2022" sheetId="46" state="visible" r:id="rId47"/>
     <sheet name="26.01.2022" sheetId="47" state="visible" r:id="rId48"/>
     <sheet name="28.01.2022" sheetId="48" state="visible" r:id="rId49"/>
+    <sheet name="31.01.2022" sheetId="49" state="visible" r:id="rId50"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -148,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="14">
   <si>
     <t xml:space="preserve">Seite</t>
   </si>
@@ -598,7 +599,7 @@
       <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
@@ -1210,7 +1211,7 @@
       <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -1941,7 +1942,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -2500,7 +2501,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -2903,7 +2904,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
@@ -3305,7 +3306,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10.57"/>
   </cols>
@@ -3972,7 +3973,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -4279,7 +4280,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4578,7 +4579,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4874,7 +4875,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5173,7 +5174,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5472,7 +5473,7 @@
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.85"/>
@@ -6379,7 +6380,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6678,7 +6679,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6978,7 +6979,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7277,7 +7278,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7573,7 +7574,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -7874,7 +7875,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8313,7 +8314,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8731,7 +8732,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -9167,7 +9168,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9599,7 +9600,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -10012,7 +10013,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.57"/>
@@ -10499,7 +10500,7 @@
       <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
@@ -10942,7 +10943,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11381,7 +11382,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11826,7 +11827,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12263,7 +12264,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12708,7 +12709,7 @@
       <selection pane="topRight" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -13153,7 +13154,7 @@
       <selection pane="topRight" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13454,7 +13455,7 @@
       <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13753,7 +13754,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14004,7 +14005,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14255,7 +14256,7 @@
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -15149,7 +15150,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.43"/>
   </cols>
@@ -15580,7 +15581,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16020,7 +16021,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16460,7 +16461,7 @@
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16885,7 +16886,7 @@
       <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17325,7 +17326,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17765,7 +17766,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18205,7 +18206,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18641,8 +18642,448 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18655,27 +19096,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -18684,24 +19125,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
@@ -18713,16 +19154,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18742,18 +19183,18 @@
         <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
@@ -18768,7 +19209,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1</v>
@@ -18779,19 +19220,19 @@
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -18805,13 +19246,13 @@
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -18826,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18840,10 +19281,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
@@ -18857,7 +19298,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -18866,19 +19307,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18889,19 +19330,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -18921,13 +19362,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -18935,13 +19376,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -18961,7 +19402,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -18973,10 +19414,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
@@ -18993,7 +19434,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
@@ -19005,21 +19446,21 @@
         <v>1</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -19034,7 +19475,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19045,22 +19486,22 @@
         <v>6</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19085,7 +19526,7 @@
       <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -19656,7 +20097,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -20223,7 +20664,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -20936,7 +21377,7 @@
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -21669,7 +22110,7 @@
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="48"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="49"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -57,6 +57,7 @@
     <sheet name="26.01.2022" sheetId="47" state="visible" r:id="rId48"/>
     <sheet name="28.01.2022" sheetId="48" state="visible" r:id="rId49"/>
     <sheet name="31.01.2022" sheetId="49" state="visible" r:id="rId50"/>
+    <sheet name="07.02.2022" sheetId="50" state="visible" r:id="rId51"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="14">
   <si>
     <t xml:space="preserve">Seite</t>
   </si>
@@ -599,7 +600,7 @@
       <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
@@ -1211,7 +1212,7 @@
       <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -1942,7 +1943,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -2501,7 +2502,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -2904,7 +2905,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
@@ -3306,7 +3307,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10.57"/>
   </cols>
@@ -3973,7 +3974,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -4280,7 +4281,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4579,7 +4580,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4875,7 +4876,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5174,7 +5175,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5473,7 +5474,7 @@
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.85"/>
@@ -6380,7 +6381,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6679,7 +6680,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6979,7 +6980,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7278,7 +7279,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7574,7 +7575,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -7875,7 +7876,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8314,7 +8315,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8732,7 +8733,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -9168,7 +9169,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9600,7 +9601,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -10013,7 +10014,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.57"/>
@@ -10500,7 +10501,7 @@
       <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
@@ -10943,7 +10944,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11382,7 +11383,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11827,7 +11828,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12264,7 +12265,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12709,7 +12710,7 @@
       <selection pane="topRight" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -13154,7 +13155,7 @@
       <selection pane="topRight" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13455,7 +13456,7 @@
       <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13754,7 +13755,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14005,7 +14006,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14256,7 +14257,7 @@
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -15150,7 +15151,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.43"/>
   </cols>
@@ -15581,7 +15582,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16021,7 +16022,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16461,7 +16462,7 @@
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16886,7 +16887,7 @@
       <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17326,7 +17327,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17766,7 +17767,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18206,7 +18207,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18646,7 +18647,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -19082,11 +19083,11 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -19526,7 +19527,7 @@
       <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -20082,6 +20083,446 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -20097,7 +20538,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -20664,7 +21105,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -21377,7 +21818,7 @@
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -22110,7 +22551,7 @@
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="49"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="50"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,6 +58,7 @@
     <sheet name="28.01.2022" sheetId="48" state="visible" r:id="rId49"/>
     <sheet name="31.01.2022" sheetId="49" state="visible" r:id="rId50"/>
     <sheet name="07.02.2022" sheetId="50" state="visible" r:id="rId51"/>
+    <sheet name="09.02.2022" sheetId="51" state="visible" r:id="rId52"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="14">
   <si>
     <t xml:space="preserve">Seite</t>
   </si>
@@ -600,7 +601,7 @@
       <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
@@ -1212,7 +1213,7 @@
       <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -1943,7 +1944,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -2502,7 +2503,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -2905,7 +2906,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
@@ -3307,7 +3308,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10.57"/>
   </cols>
@@ -3974,7 +3975,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -4281,7 +4282,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4580,7 +4581,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4876,7 +4877,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5175,7 +5176,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5474,7 +5475,7 @@
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.85"/>
@@ -6381,7 +6382,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6680,7 +6681,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6980,7 +6981,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7279,7 +7280,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7575,7 +7576,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -7876,7 +7877,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8315,7 +8316,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8733,7 +8734,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -9169,7 +9170,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9601,7 +9602,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -10014,7 +10015,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.57"/>
@@ -10501,7 +10502,7 @@
       <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
@@ -10944,7 +10945,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11383,7 +11384,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11828,7 +11829,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12265,7 +12266,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12710,7 +12711,7 @@
       <selection pane="topRight" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -13155,7 +13156,7 @@
       <selection pane="topRight" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13456,7 +13457,7 @@
       <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13755,7 +13756,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14006,7 +14007,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14257,7 +14258,7 @@
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -15151,7 +15152,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.43"/>
   </cols>
@@ -15582,7 +15583,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16022,7 +16023,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16462,7 +16463,7 @@
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16887,7 +16888,7 @@
       <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17327,7 +17328,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17767,7 +17768,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18207,7 +18208,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18647,7 +18648,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -19087,7 +19088,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -19527,7 +19528,7 @@
       <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -20094,8 +20095,448 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20108,19 +20549,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>4</v>
@@ -20134,16 +20575,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1</v>
@@ -20154,7 +20595,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
@@ -20163,10 +20604,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
@@ -20175,7 +20616,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20186,10 +20627,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -20198,7 +20639,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -20212,16 +20653,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1</v>
@@ -20232,33 +20673,33 @@
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -20273,13 +20714,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20293,19 +20734,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20316,7 +20757,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -20331,12 +20772,12 @@
         <v>1</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
@@ -20345,24 +20786,24 @@
         <v>0</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -20388,13 +20829,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -20403,13 +20844,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20423,7 +20864,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
@@ -20432,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -20440,7 +20881,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -20449,19 +20890,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20472,7 +20913,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
@@ -20487,30 +20928,30 @@
         <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
@@ -20538,7 +20979,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -21105,7 +21546,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -21818,7 +22259,7 @@
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -22551,7 +22992,7 @@
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="50"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -59,6 +59,7 @@
     <sheet name="31.01.2022" sheetId="49" state="visible" r:id="rId50"/>
     <sheet name="07.02.2022" sheetId="50" state="visible" r:id="rId51"/>
     <sheet name="09.02.2022" sheetId="51" state="visible" r:id="rId52"/>
+    <sheet name="14.02.22" sheetId="52" state="visible" r:id="rId53"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="14">
   <si>
     <t xml:space="preserve">Seite</t>
   </si>
@@ -601,7 +602,7 @@
       <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
@@ -1213,7 +1214,7 @@
       <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -1944,7 +1945,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -2503,7 +2504,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -2906,7 +2907,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
@@ -3308,7 +3309,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10.57"/>
   </cols>
@@ -3975,7 +3976,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -4282,7 +4283,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4581,7 +4582,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4877,7 +4878,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5176,7 +5177,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5475,7 +5476,7 @@
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.85"/>
@@ -6382,7 +6383,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6681,7 +6682,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6981,7 +6982,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7280,7 +7281,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7576,7 +7577,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -7877,7 +7878,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8316,7 +8317,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8734,7 +8735,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -9170,7 +9171,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9602,7 +9603,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -10015,7 +10016,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.57"/>
@@ -10502,7 +10503,7 @@
       <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
@@ -10945,7 +10946,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11384,7 +11385,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11829,7 +11830,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12266,7 +12267,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12711,7 +12712,7 @@
       <selection pane="topRight" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -13156,7 +13157,7 @@
       <selection pane="topRight" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13457,7 +13458,7 @@
       <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13756,7 +13757,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14007,7 +14008,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14258,7 +14259,7 @@
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -15152,7 +15153,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.43"/>
   </cols>
@@ -15583,7 +15584,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16023,7 +16024,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16463,7 +16464,7 @@
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16888,7 +16889,7 @@
       <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17328,7 +17329,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17768,7 +17769,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18208,7 +18209,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18648,7 +18649,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -19088,7 +19089,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -19528,7 +19529,7 @@
       <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -20099,7 +20100,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -20535,8 +20536,448 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20552,19 +20993,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20575,27 +21016,27 @@
         <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
@@ -20607,16 +21048,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20633,13 +21074,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -20647,7 +21088,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
@@ -20662,7 +21103,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1</v>
@@ -20679,7 +21120,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -20688,18 +21129,18 @@
         <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -20717,10 +21158,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20734,10 +21175,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
@@ -20746,7 +21187,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20760,10 +21201,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -20772,7 +21213,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20783,22 +21224,22 @@
         <v>6</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20812,7 +21253,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -20824,7 +21265,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20841,13 +21282,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
@@ -20881,13 +21322,13 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
@@ -20899,7 +21340,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -20907,7 +21348,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
@@ -20919,42 +21360,42 @@
         <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -20979,7 +21420,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -21546,7 +21987,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -22259,7 +22700,7 @@
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -22992,7 +23433,7 @@
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -604,7 +604,7 @@
       <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
@@ -1216,7 +1216,7 @@
       <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -1947,7 +1947,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -2506,7 +2506,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -2909,7 +2909,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
@@ -3311,7 +3311,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10.57"/>
   </cols>
@@ -3978,7 +3978,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -4285,7 +4285,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4584,7 +4584,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4880,7 +4880,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5179,7 +5179,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5478,7 +5478,7 @@
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.85"/>
@@ -6385,7 +6385,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6684,7 +6684,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6984,7 +6984,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7283,7 +7283,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7579,7 +7579,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -7880,7 +7880,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8319,7 +8319,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8737,7 +8737,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -9173,7 +9173,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9605,7 +9605,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -10018,7 +10018,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.57"/>
@@ -10505,7 +10505,7 @@
       <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
@@ -10948,7 +10948,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11387,7 +11387,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11832,7 +11832,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12269,7 +12269,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12714,7 +12714,7 @@
       <selection pane="topRight" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -13159,7 +13159,7 @@
       <selection pane="topRight" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13460,7 +13460,7 @@
       <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13759,7 +13759,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14010,7 +14010,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14261,7 +14261,7 @@
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -15155,7 +15155,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.43"/>
   </cols>
@@ -15586,7 +15586,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16026,7 +16026,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16466,7 +16466,7 @@
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16891,7 +16891,7 @@
       <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17331,7 +17331,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17771,7 +17771,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18211,7 +18211,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18651,7 +18651,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -19091,7 +19091,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -19531,7 +19531,7 @@
       <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -20102,7 +20102,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -20542,7 +20542,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -20982,7 +20982,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -21419,10 +21419,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -21457,6 +21457,24 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
@@ -21465,6 +21483,24 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
@@ -21473,6 +21509,24 @@
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
@@ -21481,6 +21535,24 @@
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
@@ -21489,6 +21561,24 @@
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
@@ -21497,6 +21587,24 @@
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
@@ -21505,6 +21613,24 @@
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
@@ -21513,6 +21639,24 @@
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
@@ -21521,6 +21665,24 @@
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
@@ -21529,6 +21691,24 @@
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
@@ -21537,6 +21717,24 @@
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
@@ -21545,6 +21743,24 @@
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
@@ -21553,6 +21769,24 @@
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
@@ -21561,6 +21795,24 @@
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
@@ -21568,6 +21820,24 @@
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -21589,10 +21859,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -21627,6 +21897,24 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
@@ -21635,6 +21923,24 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
@@ -21643,6 +21949,24 @@
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
@@ -21651,6 +21975,24 @@
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
@@ -21659,6 +22001,24 @@
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
@@ -21667,6 +22027,24 @@
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
@@ -21675,6 +22053,24 @@
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
@@ -21683,6 +22079,24 @@
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
@@ -21691,6 +22105,24 @@
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
@@ -21699,6 +22131,24 @@
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
@@ -21707,6 +22157,24 @@
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
@@ -21715,6 +22183,24 @@
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
@@ -21723,6 +22209,24 @@
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
@@ -21731,6 +22235,24 @@
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
@@ -21738,6 +22260,24 @@
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21762,7 +22302,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -22329,7 +22869,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -23042,7 +23582,7 @@
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -23775,7 +24315,7 @@
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="53"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="54"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -62,6 +62,7 @@
     <sheet name="14.02.2022" sheetId="52" state="visible" r:id="rId53"/>
     <sheet name="23.02.2022" sheetId="53" state="visible" r:id="rId54"/>
     <sheet name="25.02.2022" sheetId="54" state="visible" r:id="rId55"/>
+    <sheet name="28.02.2022" sheetId="55" state="visible" r:id="rId56"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -154,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="14">
   <si>
     <t xml:space="preserve">Seite</t>
   </si>
@@ -604,7 +605,7 @@
       <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
@@ -1216,7 +1217,7 @@
       <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -1947,7 +1948,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -2506,7 +2507,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -2909,7 +2910,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
@@ -3311,7 +3312,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10.57"/>
   </cols>
@@ -3978,7 +3979,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -4285,7 +4286,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4584,7 +4585,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4880,7 +4881,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5179,7 +5180,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5478,7 +5479,7 @@
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.85"/>
@@ -6385,7 +6386,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6684,7 +6685,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6984,7 +6985,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7283,7 +7284,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7579,7 +7580,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -7880,7 +7881,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8319,7 +8320,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8737,7 +8738,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -9173,7 +9174,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9605,7 +9606,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -10018,7 +10019,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.57"/>
@@ -10505,7 +10506,7 @@
       <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
@@ -10948,7 +10949,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11387,7 +11388,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11832,7 +11833,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12269,7 +12270,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12714,7 +12715,7 @@
       <selection pane="topRight" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -13159,7 +13160,7 @@
       <selection pane="topRight" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13460,7 +13461,7 @@
       <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13759,7 +13760,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14010,7 +14011,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14261,7 +14262,7 @@
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -15155,7 +15156,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.43"/>
   </cols>
@@ -15586,7 +15587,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16026,7 +16027,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16466,7 +16467,7 @@
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16891,7 +16892,7 @@
       <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17331,7 +17332,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17771,7 +17772,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18211,7 +18212,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18651,7 +18652,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -19091,7 +19092,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -19531,7 +19532,7 @@
       <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -20102,7 +20103,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -20542,7 +20543,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -20982,7 +20983,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -21422,7 +21423,7 @@
       <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -21858,11 +21859,11 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -22278,6 +22279,446 @@
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -22302,7 +22743,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -22869,7 +23310,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -23582,7 +24023,7 @@
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -24315,7 +24756,7 @@
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="54"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -63,6 +63,7 @@
     <sheet name="23.02.2022" sheetId="53" state="visible" r:id="rId54"/>
     <sheet name="25.02.2022" sheetId="54" state="visible" r:id="rId55"/>
     <sheet name="28.02.2022" sheetId="55" state="visible" r:id="rId56"/>
+    <sheet name="02.03.2022" sheetId="56" state="visible" r:id="rId57"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -155,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="14">
   <si>
     <t xml:space="preserve">Seite</t>
   </si>
@@ -605,7 +606,7 @@
       <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
@@ -1217,7 +1218,7 @@
       <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -1948,7 +1949,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -2507,7 +2508,7 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -2910,7 +2911,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
@@ -3312,7 +3313,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10.57"/>
   </cols>
@@ -3979,7 +3980,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
@@ -4286,7 +4287,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4585,7 +4586,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -4881,7 +4882,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5180,7 +5181,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -5479,7 +5480,7 @@
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.85"/>
@@ -6386,7 +6387,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6685,7 +6686,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -6985,7 +6986,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7284,7 +7285,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -7580,7 +7581,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -7881,7 +7882,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8320,7 +8321,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -8738,7 +8739,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -9174,7 +9175,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -9606,7 +9607,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -10019,7 +10020,7 @@
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.57"/>
@@ -10506,7 +10507,7 @@
       <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
@@ -10949,7 +10950,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11388,7 +11389,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -11833,7 +11834,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12270,7 +12271,7 @@
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -12715,7 +12716,7 @@
       <selection pane="topRight" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.57"/>
   </cols>
@@ -13160,7 +13161,7 @@
       <selection pane="topRight" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13461,7 +13462,7 @@
       <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.57"/>
   </cols>
@@ -13760,7 +13761,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14011,7 +14012,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="10.57"/>
   </cols>
@@ -14262,7 +14263,7 @@
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -15156,7 +15157,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="8.43"/>
   </cols>
@@ -15587,7 +15588,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16027,7 +16028,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16467,7 +16468,7 @@
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -16892,7 +16893,7 @@
       <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17332,7 +17333,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -17772,7 +17773,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18212,7 +18213,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -18652,7 +18653,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -19092,7 +19093,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -19532,7 +19533,7 @@
       <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -20103,7 +20104,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -20543,7 +20544,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -20983,7 +20984,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -21423,7 +21424,7 @@
       <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -21863,7 +21864,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -22299,8 +22300,448 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22316,19 +22757,19 @@
         <v>12</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" s="18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22339,16 +22780,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -22359,25 +22800,25 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
@@ -22385,28 +22826,28 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22423,16 +22864,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22443,13 +22884,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
@@ -22481,7 +22922,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -22489,7 +22930,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
@@ -22507,36 +22948,36 @@
         <v>1</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22553,16 +22994,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22582,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -22605,10 +23046,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1</v>
@@ -22619,7 +23060,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -22628,45 +23069,45 @@
         <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22680,19 +23121,19 @@
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22706,7 +23147,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
@@ -22715,7 +23156,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
@@ -22743,7 +23184,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -23310,7 +23751,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.57"/>
   </cols>
@@ -24023,7 +24464,7 @@
       <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>
@@ -24756,7 +25197,7 @@
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
   </cols>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="55"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -569,7 +569,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -7872,12 +7872,13 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFA6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
@@ -15153,7 +15154,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -22304,7 +22305,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -22740,11 +22741,11 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="39"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="56"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,6 +64,7 @@
     <sheet name="25.02.2022" sheetId="54" state="visible" r:id="rId55"/>
     <sheet name="28.02.2022" sheetId="55" state="visible" r:id="rId56"/>
     <sheet name="02.03.2022" sheetId="56" state="visible" r:id="rId57"/>
+    <sheet name="07.03.2022" sheetId="57" state="visible" r:id="rId58"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -156,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="14">
   <si>
     <t xml:space="preserve">Seite</t>
   </si>
@@ -15154,7 +15155,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -22305,7 +22306,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -22742,10 +22743,450 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
@@ -22758,27 +23199,27 @@
         <v>12</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
+      <c r="B2" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -22790,20 +23231,20 @@
         <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -22816,10 +23257,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
@@ -22829,7 +23270,7 @@
       <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -22839,7 +23280,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -22855,8 +23296,8 @@
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
+      <c r="B5" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -22865,7 +23306,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
@@ -22874,27 +23315,27 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1</v>
@@ -22907,14 +23348,14 @@
       <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -22923,7 +23364,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -22933,14 +23374,14 @@
       <c r="A8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -22949,7 +23390,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -22959,7 +23400,7 @@
       <c r="A9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -22969,24 +23410,24 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -22995,39 +23436,39 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -23035,25 +23476,25 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
@@ -23061,22 +23502,22 @@
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
@@ -23089,23 +23530,23 @@
       <c r="A14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -23113,16 +23554,16 @@
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -23134,27 +23575,27 @@
         <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0</v>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="64"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="57"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -67,12 +67,6 @@
     <sheet name="07.03.2022" sheetId="57" state="visible" r:id="rId58"/>
     <sheet name="09.03.2022" sheetId="58" state="visible" r:id="rId59"/>
     <sheet name="11.03.2022" sheetId="59" state="visible" r:id="rId60"/>
-    <sheet name="14.03.2022" sheetId="60" state="visible" r:id="rId61"/>
-    <sheet name="16.03.2022" sheetId="61" state="visible" r:id="rId62"/>
-    <sheet name="18.03.2022" sheetId="62" state="visible" r:id="rId63"/>
-    <sheet name="21.03.2022" sheetId="63" state="visible" r:id="rId64"/>
-    <sheet name="23.03.2022" sheetId="64" state="visible" r:id="rId65"/>
-    <sheet name="25.02.22" sheetId="65" state="visible" r:id="rId66"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -164,6377 +158,13 @@
 </comments>
 </file>
 
-<file path=xl/comments61.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0.46 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">32 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">20 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">16 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">19 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">21 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">4 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">6 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">30 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">20 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">19 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">31 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">19 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">26 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">22 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">41 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">31 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">16 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">16 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">19 sec</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments62.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">16 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">6 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">22 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">4 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">20 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">19 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">23 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">36 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">6 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">28 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">31 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">23 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">29 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">48 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">22 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">19 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">16 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">32 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">21 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">27 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">32 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">19 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">39 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">21 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">33 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">23 sec</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments63.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">6 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">6 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">19 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">21 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">26 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">45 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">16 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">16 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">26 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">19 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">6 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">28 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">57 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">33 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">53 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">23 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">19 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">23 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">16 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">32 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">20 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">16 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">22 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments64.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="A17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fische waren bereits gefüttert vor Versuch</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">35 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">22 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">6 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">21 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">48 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">30 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">20 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">28 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">27 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">18 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">23 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">24 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">21 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">26 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">25 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">19 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">41 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">24 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">25 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">23 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">35 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">23 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">16 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">19 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">24 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">24 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">23 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">27 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">16 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments65.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">24 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">20 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">29 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">5 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">26 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">22 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">42 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">20 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">20 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">40 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">21 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">26 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">6 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">30 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">7 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">4 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">27 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">11 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">15 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">21 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">20 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">14 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">12 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">9 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">17 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">23 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">13 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">10 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">40 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">8 sec</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="14">
   <si>
     <t xml:space="preserve">Seite</t>
   </si>
   <si>
-    <t xml:space="preserve">Stimmulus</t>
+    <t xml:space="preserve">Stimulus</t>
   </si>
   <si>
     <t xml:space="preserve">2020albi04</t>
@@ -6571,9 +201,6 @@
   </si>
   <si>
     <t xml:space="preserve">01. + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mixed</t>
   </si>
 </sst>
 </file>
@@ -6952,7 +579,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FFFF6600"/>
@@ -6979,7 +606,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7590,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9284,7 +2911,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9686,7 +3313,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10353,7 +3980,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10959,7 +4586,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11554,7 +5181,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11853,7 +5480,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13059,7 +6686,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13658,7 +7285,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14254,9 +7881,9 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14695,7 +8322,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15113,7 +8740,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15549,7 +9176,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15981,7 +9608,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16881,7 +10508,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17324,7 +10951,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17763,7 +11390,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18208,7 +11835,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18645,7 +12272,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19090,7 +12717,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K24" activeCellId="0" sqref="K24"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19535,7 +13162,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19836,7 +13463,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20386,7 +14013,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20636,8 +14263,8 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21531,7 +15158,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21962,7 +15589,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22402,7 +16029,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22842,7 +16469,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23267,7 +16894,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23707,7 +17334,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24147,7 +17774,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24587,7 +18214,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25027,7 +18654,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25467,7 +19094,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26478,7 +20105,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26918,7 +20545,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27358,7 +20985,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27798,7 +21425,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28238,7 +21865,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28678,7 +22305,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29118,7 +22745,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29559,7 +23186,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29998,8 +23625,8 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30439,7 +24066,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30879,7 +24506,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31438,3055 +25065,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF81D41A"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AC16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="17"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="20"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="20"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="20"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="20"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="20"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="V7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="20"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="V8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="20"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="20"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="20"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="20"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="20"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="20"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="20"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="V16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="20"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFA6"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -34494,7 +25072,7 @@
   </sheetPr>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -35207,8 +25785,8 @@
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Training_Messreihe.xlsx
+++ b/Training_Messreihe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="57"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="12.08.2021" sheetId="1" state="visible" r:id="rId2"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="13">
   <si>
     <t xml:space="preserve">Seite</t>
   </si>
@@ -188,16 +188,13 @@
     <t xml:space="preserve">left</t>
   </si>
   <si>
-    <t xml:space="preserve">2021albi02</t>
+    <t xml:space="preserve">2020albi02</t>
   </si>
   <si>
     <t xml:space="preserve">2020albi03</t>
   </si>
   <si>
     <t xml:space="preserve">2020albi01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020albi02</t>
   </si>
   <si>
     <t xml:space="preserve">01. + </t>
@@ -606,7 +603,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+      <selection pane="topLeft" activeCell="J27" activeCellId="1" sqref="I16:I18 J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1218,7 +1215,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="I16:I18 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1237,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>10</v>
@@ -1949,7 +1946,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="1" sqref="I16:I18 C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2508,7 +2505,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="1" sqref="I16:I18 C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2911,7 +2908,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I16:I18 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2930,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>10</v>
@@ -3313,7 +3310,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I16:I18 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3329,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>10</v>
@@ -3980,7 +3977,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4005,7 +4002,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,7 +4284,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="I16:I18 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4586,7 +4583,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4608,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4882,7 +4879,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="I16:I18 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4892,7 +4889,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
@@ -5181,7 +5178,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5203,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,7 +5477,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I16:I18 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6387,7 +6384,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="I16:I18 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6686,7 +6683,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6708,7 +6705,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6986,7 +6983,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="I16:I18 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7285,7 +7282,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7307,7 +7304,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7581,7 +7578,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="I16:I18 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7883,7 +7880,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="1" sqref="I16:I18 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7899,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>10</v>
@@ -8322,7 +8319,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="1" sqref="I16:I18 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8350,7 +8347,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>4</v>
@@ -8740,7 +8737,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8762,7 +8759,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
@@ -9176,7 +9173,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="1" sqref="I16:I18 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9206,7 +9203,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>2</v>
@@ -9608,7 +9605,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9630,7 +9627,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>2</v>
@@ -10021,7 +10018,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="I16:I18 C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10508,7 +10505,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="1" sqref="I16:I18 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10540,7 +10537,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10951,7 +10948,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="1" sqref="I16:I18 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10982,7 +10979,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11390,7 +11387,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="1" sqref="I16:I18 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11409,7 +11406,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>3</v>
@@ -11835,7 +11832,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11857,7 +11854,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>10</v>
@@ -12272,7 +12269,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12294,7 +12291,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>2</v>
@@ -12717,7 +12714,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="1" sqref="I16:I18 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12745,7 +12742,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>2</v>
@@ -13162,7 +13159,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13184,7 +13181,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13463,7 +13460,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13485,7 +13482,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13762,7 +13759,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="1" sqref="I16:I18 I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14013,7 +14010,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="I16:I18 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14032,7 +14029,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14263,8 +14260,8 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I16:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15158,7 +15155,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="I16:I18 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15186,7 +15183,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>2</v>
@@ -15589,7 +15586,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="I16:I18 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15614,7 +15611,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>11</v>
@@ -16029,7 +16026,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="I16:I18 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16054,7 +16051,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>2</v>
@@ -16469,7 +16466,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16488,7 +16485,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>10</v>
@@ -16894,7 +16891,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16913,7 +16910,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
@@ -17334,7 +17331,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="I16:I18 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17359,7 +17356,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>2</v>
@@ -17774,7 +17771,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="I16:I18 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17802,7 +17799,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18214,7 +18211,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="I16:I18 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18230,7 +18227,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>11</v>
@@ -18654,7 +18651,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="I16:I18 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18682,7 +18679,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19094,7 +19091,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I16:I18 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19107,7 +19104,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>2</v>
@@ -19534,7 +19531,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+      <selection pane="topLeft" activeCell="H30" activeCellId="1" sqref="I16:I18 H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20105,7 +20102,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="I16:I18 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20127,7 +20124,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>10</v>
@@ -20545,7 +20542,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="I16:I18 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20567,7 +20564,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>11</v>
@@ -20985,7 +20982,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21004,7 +21001,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>2</v>
@@ -21425,7 +21422,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="I16:I18 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21453,7 +21450,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21865,7 +21862,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I16:I18 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21878,7 +21875,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>2</v>
@@ -22305,7 +22302,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I16:I18 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22318,7 +22315,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>11</v>
@@ -22745,7 +22742,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I16:I18 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22758,7 +22755,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>3</v>
@@ -23186,7 +23183,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I16:I18 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23199,7 +23196,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>2</v>
@@ -23625,8 +23622,8 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="1" sqref="I16:I18 D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23651,7 +23648,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>10</v>
@@ -24066,7 +24063,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I16:I18 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24085,7 +24082,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>11</v>
@@ -24506,7 +24503,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="I16:I18 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25073,7 +25070,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="1" sqref="I16:I18 D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25786,7 +25783,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="I16:I18 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25805,7 +25802,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>10</v>
@@ -26519,7 +26516,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+      <selection pane="topLeft" activeCell="G30" activeCellId="1" sqref="I16:I18 G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
